--- a/paper.xlsx
+++ b/paper.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\RailwayTurnoutGuard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602A18A-7FF4-416C-B3CE-CB791CD7B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5087BF10-7B40-4C5F-9791-21FE20DA1D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
+    <sheet name="H1" sheetId="2" r:id="rId2"/>
+    <sheet name="H3" sheetId="3" r:id="rId3"/>
+    <sheet name="H4" sheetId="4" r:id="rId4"/>
+    <sheet name="H6" sheetId="7" r:id="rId5"/>
+    <sheet name="F1" sheetId="5" r:id="rId6"/>
+    <sheet name="F2" sheetId="6" r:id="rId7"/>
+    <sheet name="F3" sheetId="8" r:id="rId8"/>
+    <sheet name="F4" sheetId="9" r:id="rId9"/>
+    <sheet name="F5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="5">
   <si>
     <t>Phase C</t>
   </si>
@@ -988,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,19 +1036,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.0606061E-2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.923401E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.4494950000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1586,6 +1595,3395 @@
         <v>5.5046085859999998</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31885C3-4F23-405F-B5BE-BA7F6CA4B70B}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.9992359739619004E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.53145829824864499</v>
+      </c>
+      <c r="C4">
+        <v>7.9992359739619004E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.53145829824864499</v>
+      </c>
+      <c r="E4">
+        <v>6.7817517338215103E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.61657284018660097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.15311431739595399</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.15311431739595399</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.16492464355779499</v>
+      </c>
+      <c r="F5">
+        <v>2.08621756807882E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.202068848369264</v>
+      </c>
+      <c r="B6">
+        <v>4.7927898323298201</v>
+      </c>
+      <c r="C6">
+        <v>0.202068848369264</v>
+      </c>
+      <c r="D6">
+        <v>4.7927898323298201</v>
+      </c>
+      <c r="E6">
+        <v>0.19018561895951</v>
+      </c>
+      <c r="F6">
+        <v>4.7926987032699202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.31539694724939699</v>
+      </c>
+      <c r="B7">
+        <v>1.19362482967978</v>
+      </c>
+      <c r="C7">
+        <v>0.31539694724939699</v>
+      </c>
+      <c r="D7">
+        <v>1.19362482967978</v>
+      </c>
+      <c r="E7">
+        <v>0.35717050830331498</v>
+      </c>
+      <c r="F7">
+        <v>1.1406902370157399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.45260085982090598</v>
+      </c>
+      <c r="B8">
+        <v>1.0349121807475601</v>
+      </c>
+      <c r="C8">
+        <v>0.45260085982090598</v>
+      </c>
+      <c r="D8">
+        <v>1.0349121807475601</v>
+      </c>
+      <c r="E8">
+        <v>0.45865182939765098</v>
+      </c>
+      <c r="F8">
+        <v>1.0030056186533101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.1262545737675098</v>
+      </c>
+      <c r="B9">
+        <v>1.0767176369724401</v>
+      </c>
+      <c r="C9">
+        <v>3.1262545737675098</v>
+      </c>
+      <c r="D9">
+        <v>1.0767176369724401</v>
+      </c>
+      <c r="E9">
+        <v>4.2846507314747297</v>
+      </c>
+      <c r="F9">
+        <v>1.14950697356017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3.2389265434164298</v>
+      </c>
+      <c r="B10">
+        <v>1.14148761628979</v>
+      </c>
+      <c r="C10">
+        <v>3.2389265434164298</v>
+      </c>
+      <c r="D10">
+        <v>1.14148761628979</v>
+      </c>
+      <c r="E10">
+        <v>4.3063029961047796</v>
+      </c>
+      <c r="F10">
+        <v>3.1319235303251397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.1779568281546497</v>
+      </c>
+      <c r="B11">
+        <v>1.0741318498980399</v>
+      </c>
+      <c r="C11">
+        <v>4.1779568281546497</v>
+      </c>
+      <c r="D11">
+        <v>1.0741318498980399</v>
+      </c>
+      <c r="E11">
+        <v>5.5006040034089496</v>
+      </c>
+      <c r="F11">
+        <v>2.9826996947540398E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4.2311397475068899</v>
+      </c>
+      <c r="B12">
+        <v>1.1597476016654</v>
+      </c>
+      <c r="C12">
+        <v>4.2311397475068899</v>
+      </c>
+      <c r="D12">
+        <v>1.1597476016654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.2727675020649798</v>
+      </c>
+      <c r="B13">
+        <v>1.14941584450028</v>
+      </c>
+      <c r="C13">
+        <v>4.2727675020649798</v>
+      </c>
+      <c r="D13">
+        <v>1.14941584450028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4.3122081591857002</v>
+      </c>
+      <c r="B14">
+        <v>4.2015508707927397E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.3122081591857002</v>
+      </c>
+      <c r="D14">
+        <v>4.2015508707927397E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5.5124507811947501</v>
+      </c>
+      <c r="B15">
+        <v>4.0568834882162001E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.5124507811947501</v>
+      </c>
+      <c r="D15">
+        <v>4.0568834882162001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20258420-F841-4636-A10A-4986F18183A2}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.1537</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.24984000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.16783999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.277254001304724</v>
+      </c>
+      <c r="B5">
+        <v>4.3312302839116699</v>
+      </c>
+      <c r="C5">
+        <v>0.27930194249083201</v>
+      </c>
+      <c r="D5">
+        <v>4.3186119873816997</v>
+      </c>
+      <c r="E5">
+        <v>0.26828029538014198</v>
+      </c>
+      <c r="F5">
+        <v>4.3501577287066198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.39704739010375201</v>
+      </c>
+      <c r="B6">
+        <v>1.16403785488958</v>
+      </c>
+      <c r="C6">
+        <v>0.410965943110427</v>
+      </c>
+      <c r="D6">
+        <v>1.05888538380651</v>
+      </c>
+      <c r="E6">
+        <v>0.437179590292609</v>
+      </c>
+      <c r="F6">
+        <v>1.16403785488958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.56858294385215402</v>
+      </c>
+      <c r="B7">
+        <v>1.2271293375394301</v>
+      </c>
+      <c r="C7">
+        <v>0.54184800254987198</v>
+      </c>
+      <c r="D7">
+        <v>1.1009463722397399</v>
+      </c>
+      <c r="E7">
+        <v>0.64018641477734695</v>
+      </c>
+      <c r="F7">
+        <v>1.2586750788643499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.79521183903629</v>
+      </c>
+      <c r="B8">
+        <v>1.2271293375394301</v>
+      </c>
+      <c r="C8">
+        <v>0.74329094467430901</v>
+      </c>
+      <c r="D8">
+        <v>1.13249211356466</v>
+      </c>
+      <c r="E8">
+        <v>0.88727982770484504</v>
+      </c>
+      <c r="F8">
+        <v>1.2271293375394301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.96518351042439199</v>
+      </c>
+      <c r="B9">
+        <v>1.2271293375394301</v>
+      </c>
+      <c r="C9">
+        <v>0.90775923956592497</v>
+      </c>
+      <c r="D9">
+        <v>1.1009463722397399</v>
+      </c>
+      <c r="E9">
+        <v>1.05253006377661</v>
+      </c>
+      <c r="F9">
+        <v>1.2271293375394301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.13578073475661</v>
+      </c>
+      <c r="B10">
+        <v>1.25236593059936</v>
+      </c>
+      <c r="C10">
+        <v>1.1086808875702601</v>
+      </c>
+      <c r="D10">
+        <v>1.11146161934805</v>
+      </c>
+      <c r="E10">
+        <v>1.20780124097788</v>
+      </c>
+      <c r="F10">
+        <v>1.3007360672975801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.25097184118104</v>
+      </c>
+      <c r="B11">
+        <v>1.32807570977917</v>
+      </c>
+      <c r="C11">
+        <v>1.1928698879664399</v>
+      </c>
+      <c r="D11">
+        <v>1.1745531019978901</v>
+      </c>
+      <c r="E11">
+        <v>1.43102683026365</v>
+      </c>
+      <c r="F11">
+        <v>1.2586750788643499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.3904254653667001</v>
+      </c>
+      <c r="B12">
+        <v>1.2397476340694</v>
+      </c>
+      <c r="C12">
+        <v>1.2747130648221701</v>
+      </c>
+      <c r="D12">
+        <v>1.14300736067297</v>
+      </c>
+      <c r="E12">
+        <v>3.7681373118500501</v>
+      </c>
+      <c r="F12">
+        <v>1.2586750788643499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2.7788402248416002</v>
+      </c>
+      <c r="B13">
+        <v>1.25236593059936</v>
+      </c>
+      <c r="C13">
+        <v>1.3801634182595901</v>
+      </c>
+      <c r="D13">
+        <v>1.11146161934805</v>
+      </c>
+      <c r="E13">
+        <v>4.0057729600271603</v>
+      </c>
+      <c r="F13">
+        <v>1.32176656151419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3.8698045593873101</v>
+      </c>
+      <c r="B14">
+        <v>1.2649842271293299</v>
+      </c>
+      <c r="C14">
+        <v>1.69912094917233</v>
+      </c>
+      <c r="D14">
+        <v>1.1219768664563601</v>
+      </c>
+      <c r="E14">
+        <v>5.0686172003229002</v>
+      </c>
+      <c r="F14">
+        <v>1.3427970557308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4.2254760904728199</v>
+      </c>
+      <c r="B15">
+        <v>1.32807570977917</v>
+      </c>
+      <c r="C15">
+        <v>2.2544108929619302</v>
+      </c>
+      <c r="D15">
+        <v>1.14300736067297</v>
+      </c>
+      <c r="E15">
+        <v>7.0280128566024098</v>
+      </c>
+      <c r="F15">
+        <v>1.3427970557308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4.5654194332490299</v>
+      </c>
+      <c r="B16">
+        <v>1.32807570977917</v>
+      </c>
+      <c r="C16">
+        <v>3.2931266625558799</v>
+      </c>
+      <c r="D16">
+        <v>1.14300736067297</v>
+      </c>
+      <c r="E16">
+        <v>13.709625770398199</v>
+      </c>
+      <c r="F16">
+        <v>1.37434279705573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4.9764970822423296</v>
+      </c>
+      <c r="B17">
+        <v>1.3406940063091399</v>
+      </c>
+      <c r="C17">
+        <v>3.88330607709791</v>
+      </c>
+      <c r="D17">
+        <v>1.14300736067297</v>
+      </c>
+      <c r="E17">
+        <v>13.883551830040201</v>
+      </c>
+      <c r="F17">
+        <v>1.2481598317560401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12.597206459280899</v>
+      </c>
+      <c r="B18">
+        <v>1.3533123028391101</v>
+      </c>
+      <c r="C18">
+        <v>4.1206810782149601</v>
+      </c>
+      <c r="D18">
+        <v>1.19558359621451</v>
+      </c>
+      <c r="E18">
+        <v>14.096016419275299</v>
+      </c>
+      <c r="F18">
+        <v>1.2481598317560401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13.7451407940947</v>
+      </c>
+      <c r="B19">
+        <v>1.3785488958990499</v>
+      </c>
+      <c r="C19">
+        <v>4.4871136093511197</v>
+      </c>
+      <c r="D19">
+        <v>1.21661409043112</v>
+      </c>
+      <c r="E19">
+        <v>14.101825125185</v>
+      </c>
+      <c r="F19">
+        <v>1.00630914826498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>13.8839688653363</v>
+      </c>
+      <c r="B20">
+        <v>1.2649842271293299</v>
+      </c>
+      <c r="C20">
+        <v>5.6677330854952102</v>
+      </c>
+      <c r="D20">
+        <v>1.2271293375394301</v>
+      </c>
+      <c r="E20">
+        <v>14.1032028310738</v>
+      </c>
+      <c r="F20">
+        <v>0.585699263932702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>14.081643595678299</v>
+      </c>
+      <c r="B21">
+        <v>1.2397476340694</v>
+      </c>
+      <c r="C21">
+        <v>13.695215711506799</v>
+      </c>
+      <c r="D21">
+        <v>1.26919032597266</v>
+      </c>
+      <c r="E21">
+        <v>14.350817538121399</v>
+      </c>
+      <c r="F21">
+        <v>0.57518401682439502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>14.0666303250194</v>
+      </c>
+      <c r="B22">
+        <v>0.63406940063091399</v>
+      </c>
+      <c r="C22">
+        <v>13.881727300619801</v>
+      </c>
+      <c r="D22">
+        <v>1.1745531019978901</v>
+      </c>
+      <c r="E22">
+        <v>15.343100895732199</v>
+      </c>
+      <c r="F22">
+        <v>0.60672975814931596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>14.1488011724649</v>
+      </c>
+      <c r="B23">
+        <v>0.52050473186119794</v>
+      </c>
+      <c r="C23">
+        <v>14.045674301391401</v>
+      </c>
+      <c r="D23">
+        <v>1.1219768664563601</v>
+      </c>
+      <c r="E23">
+        <v>15.411390425465299</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>14.348352561639301</v>
+      </c>
+      <c r="B24">
+        <v>0.570977917981072</v>
+      </c>
+      <c r="C24">
+        <v>14.0649994191294</v>
+      </c>
+      <c r="D24">
+        <v>-3.15457413249298E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>15.169882306681799</v>
+      </c>
+      <c r="B25">
+        <v>0.570977917981072</v>
+      </c>
+      <c r="C25">
+        <v>15.3864800135834</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>15.3398539780699</v>
+      </c>
+      <c r="B26">
+        <v>0.570977917981072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>15.377029695891901</v>
+      </c>
+      <c r="B27">
+        <v>0.356466876971608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>15.3966005665722</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C60C57-995E-49E4-B0B4-68F95992D5C0}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.109389243391066</v>
+      </c>
+      <c r="B4">
+        <v>1.26978157852768E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.5633546034639695E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.8950282160461001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.123974475843208</v>
+      </c>
+      <c r="F4">
+        <v>1.2650213851686401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.20419325432999</v>
+      </c>
+      <c r="B5">
+        <v>4.4510307008670598</v>
+      </c>
+      <c r="C5">
+        <v>7.29261622607109E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.58722935325632897</v>
+      </c>
+      <c r="E5">
+        <v>0.20419325432999</v>
+      </c>
+      <c r="F5">
+        <v>4.4771403614414798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.31358249772105701</v>
+      </c>
+      <c r="B6">
+        <v>1.8527624592110901</v>
+      </c>
+      <c r="C6">
+        <v>0.123974475843208</v>
+      </c>
+      <c r="D6">
+        <v>0.74372070993523698</v>
+      </c>
+      <c r="E6">
+        <v>0.32087511394712798</v>
+      </c>
+      <c r="F6">
+        <v>1.9310676399675299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.41567912488605202</v>
+      </c>
+      <c r="B7">
+        <v>1.8263195851015399</v>
+      </c>
+      <c r="C7">
+        <v>0.189608021877848</v>
+      </c>
+      <c r="D7">
+        <v>4.43802347251345</v>
+      </c>
+      <c r="E7">
+        <v>0.43026435733819501</v>
+      </c>
+      <c r="F7">
+        <v>1.9568202860400099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.56882406563354504</v>
+      </c>
+      <c r="B8">
+        <v>1.8127649345116399</v>
+      </c>
+      <c r="C8">
+        <v>0.30628988149498598</v>
+      </c>
+      <c r="D8">
+        <v>1.9702797327627399</v>
+      </c>
+      <c r="E8">
+        <v>0.56882406563354504</v>
+      </c>
+      <c r="F8">
+        <v>1.9563680676709001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.84594348222424698</v>
+      </c>
+      <c r="B9">
+        <v>1.8118604977734101</v>
+      </c>
+      <c r="C9">
+        <v>3.3618960802187701</v>
+      </c>
+      <c r="D9">
+        <v>1.93419746710111</v>
+      </c>
+      <c r="E9">
+        <v>1.7356426618049201</v>
+      </c>
+      <c r="F9">
+        <v>1.9264502524092499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.3564266180492199</v>
+      </c>
+      <c r="B10">
+        <v>1.8232492603849499</v>
+      </c>
+      <c r="C10">
+        <v>3.46399270738377</v>
+      </c>
+      <c r="D10">
+        <v>1.89469976270436</v>
+      </c>
+      <c r="E10">
+        <v>1.9835916134913301</v>
+      </c>
+      <c r="F10">
+        <v>1.9386958498254101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.6554238833181401</v>
+      </c>
+      <c r="B11">
+        <v>1.80921859045914</v>
+      </c>
+      <c r="C11">
+        <v>4.2297174111212401</v>
+      </c>
+      <c r="D11">
+        <v>1.91831032176526</v>
+      </c>
+      <c r="E11">
+        <v>3.3618960802187701</v>
+      </c>
+      <c r="F11">
+        <v>1.93419746710111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2.0419325432998998</v>
+      </c>
+      <c r="B12">
+        <v>1.7949023089317799</v>
+      </c>
+      <c r="C12">
+        <v>4.2515952597994504</v>
+      </c>
+      <c r="D12">
+        <v>0.41693343583616299</v>
+      </c>
+      <c r="E12">
+        <v>3.4712853236098402</v>
+      </c>
+      <c r="F12">
+        <v>1.8946759617375599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2.5232452142206001</v>
+      </c>
+      <c r="B13">
+        <v>1.8063862754105</v>
+      </c>
+      <c r="C13">
+        <v>4.2807657247037296</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4.2224247948951596</v>
+      </c>
+      <c r="F13">
+        <v>1.9183341227320601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3.3691886964448399</v>
+      </c>
+      <c r="B14">
+        <v>1.8036253632622501</v>
+      </c>
+      <c r="C14">
+        <v>5.4111212397447499</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4.2734731084776598</v>
+      </c>
+      <c r="F14">
+        <v>0.429916863222983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3.55150410209662</v>
+      </c>
+      <c r="B15">
+        <v>1.7638658482307501</v>
+      </c>
+      <c r="E15">
+        <v>4.4266180492251497</v>
+      </c>
+      <c r="F15">
+        <v>0.49469119435631398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3.74111212397447</v>
+      </c>
+      <c r="B16">
+        <v>1.8285211745301</v>
+      </c>
+      <c r="E16">
+        <v>4.6016408386508596</v>
+      </c>
+      <c r="F16">
+        <v>0.52022963172764003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4.2005469462169502</v>
+      </c>
+      <c r="B17">
+        <v>1.8139668833347999</v>
+      </c>
+      <c r="E17">
+        <v>5.2215132178669101</v>
+      </c>
+      <c r="F17">
+        <v>0.53126137983724797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4.26618049225159</v>
+      </c>
+      <c r="B18">
+        <v>0.429940664189778</v>
+      </c>
+      <c r="E18">
+        <v>5.3819507748404698</v>
+      </c>
+      <c r="F18">
+        <v>0.53073775856775196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4.4193254329990799</v>
+      </c>
+      <c r="B19">
+        <v>0.46860533474869698</v>
+      </c>
+      <c r="E19">
+        <v>5.4257064721969002</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4.5505925250683603</v>
+      </c>
+      <c r="B20">
+        <v>0.533451068782413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5.3309024612579696</v>
+      </c>
+      <c r="B21">
+        <v>0.55701402590973104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5.4038286235186801</v>
+      </c>
+      <c r="B22">
+        <v>0.53066635566736597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5.4475843208751096</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A427A-D6F2-459E-9F5B-A597D842EDCF}">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1.16822429906537E-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.30551683690178E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.16822429906537E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.110854679371462</v>
+      </c>
+      <c r="B4">
+        <v>1.16822429906537E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.2599837000814903E-2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.12390984774048</v>
+      </c>
+      <c r="F4">
+        <v>2.33644859813084E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.14991354949767299</v>
+      </c>
+      <c r="B5">
+        <v>4.9649532710280297</v>
+      </c>
+      <c r="C5">
+        <v>4.63100488235876E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.51401869158878499</v>
+      </c>
+      <c r="E5">
+        <v>0.169442984560778</v>
+      </c>
+      <c r="F5">
+        <v>4.9415887850467204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.28849332388852</v>
+      </c>
+      <c r="B6">
+        <v>1.23831775700934</v>
+      </c>
+      <c r="C6">
+        <v>0.1181820259123</v>
+      </c>
+      <c r="D6">
+        <v>0.63084112149532601</v>
+      </c>
+      <c r="E6">
+        <v>0.27091378561798701</v>
+      </c>
+      <c r="F6">
+        <v>2.7570093457943901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.38606433136058599</v>
+      </c>
+      <c r="B7">
+        <v>1.06308411214953</v>
+      </c>
+      <c r="C7">
+        <v>0.16290778359192301</v>
+      </c>
+      <c r="D7">
+        <v>4.9299065420560702</v>
+      </c>
+      <c r="E7">
+        <v>0.29536366336859898</v>
+      </c>
+      <c r="F7">
+        <v>1.5070093457943901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.44482020580551201</v>
+      </c>
+      <c r="B8">
+        <v>1.1214953271028001</v>
+      </c>
+      <c r="C8">
+        <v>0.301655127238382</v>
+      </c>
+      <c r="D8">
+        <v>1.3317757009345701</v>
+      </c>
+      <c r="E8">
+        <v>0.32764359542688198</v>
+      </c>
+      <c r="F8">
+        <v>1.26168224299065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.51001987980714203</v>
+      </c>
+      <c r="B9">
+        <v>1.1214953271028001</v>
+      </c>
+      <c r="C9">
+        <v>0.366397794179253</v>
+      </c>
+      <c r="D9">
+        <v>0.98130841121495305</v>
+      </c>
+      <c r="E9">
+        <v>0.37957483109780699</v>
+      </c>
+      <c r="F9">
+        <v>1.08644859813084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.58822902147171496</v>
+      </c>
+      <c r="B10">
+        <v>1.0981308411214901</v>
+      </c>
+      <c r="C10">
+        <v>0.48383337522564701</v>
+      </c>
+      <c r="D10">
+        <v>1.03971962616822</v>
+      </c>
+      <c r="E10">
+        <v>0.451324939636984</v>
+      </c>
+      <c r="F10">
+        <v>1.1098130841121401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.84901248390954198</v>
+      </c>
+      <c r="B11">
+        <v>1.08644859813084</v>
+      </c>
+      <c r="C11">
+        <v>0.614156555385447</v>
+      </c>
+      <c r="D11">
+        <v>0.98130841121495305</v>
+      </c>
+      <c r="E11">
+        <v>0.51652461363861302</v>
+      </c>
+      <c r="F11">
+        <v>1.1098130841121401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.95855707637349596</v>
+      </c>
+      <c r="B12">
+        <v>9.3457943925233794E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.91407505579294501</v>
+      </c>
+      <c r="D12">
+        <v>0.98130841121495305</v>
+      </c>
+      <c r="E12">
+        <v>0.581693820502859</v>
+      </c>
+      <c r="F12">
+        <v>1.08644859813084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.0174500529366499</v>
+      </c>
+      <c r="B13">
+        <v>0.257009345794392</v>
+      </c>
+      <c r="C13">
+        <v>1.00617721210459</v>
+      </c>
+      <c r="D13">
+        <v>1.6121495327102799</v>
+      </c>
+      <c r="E13">
+        <v>0.84249251650937895</v>
+      </c>
+      <c r="F13">
+        <v>1.08644859813084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.01115858906686</v>
+      </c>
+      <c r="B14">
+        <v>0.43224299065420502</v>
+      </c>
+      <c r="C14">
+        <v>1.10968931136652</v>
+      </c>
+      <c r="D14">
+        <v>0.99299065420560695</v>
+      </c>
+      <c r="E14">
+        <v>0.95389560435375398</v>
+      </c>
+      <c r="F14">
+        <v>1.5186915887850401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.0310536297785799</v>
+      </c>
+      <c r="B15">
+        <v>0.68925233644859696</v>
+      </c>
+      <c r="C15">
+        <v>1.45526281714385</v>
+      </c>
+      <c r="D15">
+        <v>1.00467289719626</v>
+      </c>
+      <c r="E15">
+        <v>1.0451142136812599</v>
+      </c>
+      <c r="F15">
+        <v>1.47196261682243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.05734676934091</v>
+      </c>
+      <c r="B16">
+        <v>0.85280373831775602</v>
+      </c>
+      <c r="C16">
+        <v>1.56611749651532</v>
+      </c>
+      <c r="D16">
+        <v>1.01635514018691</v>
+      </c>
+      <c r="E16">
+        <v>1.06430851023314</v>
+      </c>
+      <c r="F16">
+        <v>1.1915887850467199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.08371607674671</v>
+      </c>
+      <c r="B17">
+        <v>1.07476635514018</v>
+      </c>
+      <c r="C17">
+        <v>1.7355757146447901</v>
+      </c>
+      <c r="D17">
+        <v>0.96962616822429903</v>
+      </c>
+      <c r="E17">
+        <v>1.0771351750717799</v>
+      </c>
+      <c r="F17">
+        <v>1.02803738317757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.2793760330263699</v>
+      </c>
+      <c r="B18">
+        <v>1.1214953271028001</v>
+      </c>
+      <c r="C18">
+        <v>2.0094600461577099</v>
+      </c>
+      <c r="D18">
+        <v>1.00467289719626</v>
+      </c>
+      <c r="E18">
+        <v>1.22068109285621</v>
+      </c>
+      <c r="F18">
+        <v>1.1098130841121401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.4358095499242101</v>
+      </c>
+      <c r="B19">
+        <v>1.08644859813084</v>
+      </c>
+      <c r="C19">
+        <v>2.35501831836635</v>
+      </c>
+      <c r="D19">
+        <v>1.00467289719626</v>
+      </c>
+      <c r="E19">
+        <v>1.3966897455232301</v>
+      </c>
+      <c r="F19">
+        <v>1.08644859813084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.5923649353715801</v>
+      </c>
+      <c r="B20">
+        <v>1.1448598130841099</v>
+      </c>
+      <c r="C20">
+        <v>2.8766004768106899</v>
+      </c>
+      <c r="D20">
+        <v>0.99299065420560695</v>
+      </c>
+      <c r="E20">
+        <v>1.5205538925576401</v>
+      </c>
+      <c r="F20">
+        <v>1.07476635514018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.7683278873325201</v>
+      </c>
+      <c r="B21">
+        <v>1.08644859813084</v>
+      </c>
+      <c r="C21">
+        <v>3.4438224070561798</v>
+      </c>
+      <c r="D21">
+        <v>0.98130841121495305</v>
+      </c>
+      <c r="E21">
+        <v>1.8726321321664401</v>
+      </c>
+      <c r="F21">
+        <v>1.07476635514018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.9052472027359399</v>
+      </c>
+      <c r="B22">
+        <v>1.08644859813084</v>
+      </c>
+      <c r="C22">
+        <v>3.8350509182033501</v>
+      </c>
+      <c r="D22">
+        <v>1.00467289719626</v>
+      </c>
+      <c r="E22">
+        <v>3.5939187593781599</v>
+      </c>
+      <c r="F22">
+        <v>1.08644859813084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2.0943871916154402</v>
+      </c>
+      <c r="B23">
+        <v>1.1331775700934501</v>
+      </c>
+      <c r="C23">
+        <v>4.1675387884742801</v>
+      </c>
+      <c r="D23">
+        <v>0.98130841121495305</v>
+      </c>
+      <c r="E23">
+        <v>4.0568516783584299</v>
+      </c>
+      <c r="F23">
+        <v>1.0981308411214901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2.3160660832209801</v>
+      </c>
+      <c r="B24">
+        <v>1.1331775700934501</v>
+      </c>
+      <c r="C24">
+        <v>4.2510339784749602</v>
+      </c>
+      <c r="D24">
+        <v>1.16822429906537E-2</v>
+      </c>
+      <c r="E24">
+        <v>4.1285713197602201</v>
+      </c>
+      <c r="F24">
+        <v>1.0981308411214901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.6094493826596201</v>
+      </c>
+      <c r="B25">
+        <v>1.1214953271028001</v>
+      </c>
+      <c r="C25">
+        <v>5.5941015622024697</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4.2133308959623399</v>
+      </c>
+      <c r="F25">
+        <v>1.0981308411214901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2.8766766446541499</v>
+      </c>
+      <c r="B26">
+        <v>1.05140186915887</v>
+      </c>
+      <c r="E26">
+        <v>4.2712946248352797</v>
+      </c>
+      <c r="F26">
+        <v>0.54906542056074703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3.2027207153683799</v>
+      </c>
+      <c r="B27">
+        <v>1.08644859813084</v>
+      </c>
+      <c r="E27">
+        <v>4.4212386414703397</v>
+      </c>
+      <c r="F27">
+        <v>0.53738317757009302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3.3591999329722899</v>
+      </c>
+      <c r="B28">
+        <v>1.08644859813084</v>
+      </c>
+      <c r="E28">
+        <v>4.57124359238016</v>
+      </c>
+      <c r="F28">
+        <v>0.57242990654205606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3.6199529282727401</v>
+      </c>
+      <c r="B29">
+        <v>1.05140186915887</v>
+      </c>
+      <c r="E29">
+        <v>4.7537874460160401</v>
+      </c>
+      <c r="F29">
+        <v>0.56074766355140204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3.80260341688945</v>
+      </c>
+      <c r="B30">
+        <v>1.1214953271028001</v>
+      </c>
+      <c r="E30">
+        <v>5.4514239578334802</v>
+      </c>
+      <c r="F30">
+        <v>0.56074766355140204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3.97862730312516</v>
+      </c>
+      <c r="B31">
+        <v>1.1098130841121401</v>
+      </c>
+      <c r="E31">
+        <v>5.5231435992352704</v>
+      </c>
+      <c r="F31">
+        <v>0.56074766355140204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4.1285103854854501</v>
+      </c>
+      <c r="B32">
+        <v>1.05140186915887</v>
+      </c>
+      <c r="E32">
+        <v>5.5354980234444602</v>
+      </c>
+      <c r="F32">
+        <v>3.5046728971962197E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4.2198813304998897</v>
+      </c>
+      <c r="B33">
+        <v>1.1214953271028001</v>
+      </c>
+      <c r="E33">
+        <v>5.6071871977088703</v>
+      </c>
+      <c r="F33">
+        <v>1.16822429906537E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4.2712793912665896</v>
+      </c>
+      <c r="B34">
+        <v>0.53738317757009302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4.3820731363632897</v>
+      </c>
+      <c r="B35">
+        <v>0.50233644859812998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4.5190838531788602</v>
+      </c>
+      <c r="B36">
+        <v>0.57242990654205606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4.6950925058458797</v>
+      </c>
+      <c r="B37">
+        <v>0.54906542056074703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4.7929681846917802</v>
+      </c>
+      <c r="B38">
+        <v>0.60747663551401898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4.8906762942820796</v>
+      </c>
+      <c r="B39">
+        <v>0.53738317757009302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5.0797858160241898</v>
+      </c>
+      <c r="B40">
+        <v>0.56074766355140204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5.3666643816313604</v>
+      </c>
+      <c r="B41">
+        <v>0.56074766355140204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5.50358369703478</v>
+      </c>
+      <c r="B42">
+        <v>0.56074766355140204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5.54198752370724</v>
+      </c>
+      <c r="B43">
+        <v>1.16822429906537E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5.6462613014037704</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0A81B8-F9B2-45B3-BA8A-BC77BA12AA83}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.9718336615143899E-2</v>
+      </c>
+      <c r="B4">
+        <v>3.20752855905981E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.65614417073696E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.177363908362589</v>
+      </c>
+      <c r="E4">
+        <v>0.12692753104325</v>
+      </c>
+      <c r="F4">
+        <v>4.8149460601831701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.19835531963862299</v>
+      </c>
+      <c r="B5">
+        <v>4.4673602916732102</v>
+      </c>
+      <c r="C5">
+        <v>6.4501280454168405E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.59666241675221399</v>
+      </c>
+      <c r="E5">
+        <v>0.198238416547632</v>
+      </c>
+      <c r="F5">
+        <v>4.4028443983326602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.29319295220490099</v>
+      </c>
+      <c r="B6">
+        <v>1.8058787641881899</v>
+      </c>
+      <c r="C6">
+        <v>0.20744453496315701</v>
+      </c>
+      <c r="D6">
+        <v>4.4834709989003798</v>
+      </c>
+      <c r="E6">
+        <v>0.27568671432903002</v>
+      </c>
+      <c r="F6">
+        <v>2.14462373644198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.32838078259312897</v>
+      </c>
+      <c r="B7">
+        <v>1.22516265969144</v>
+      </c>
+      <c r="C7">
+        <v>0.32852691145686802</v>
+      </c>
+      <c r="D7">
+        <v>1.3058075263671201</v>
+      </c>
+      <c r="E7">
+        <v>0.31961305076882002</v>
+      </c>
+      <c r="F7">
+        <v>1.3864706591507701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.39142077440991302</v>
+      </c>
+      <c r="B8">
+        <v>1.0153581435789101</v>
+      </c>
+      <c r="C8">
+        <v>0.40059766705269001</v>
+      </c>
+      <c r="D8">
+        <v>1.07985577081149</v>
+      </c>
+      <c r="E8">
+        <v>0.39159612904639901</v>
+      </c>
+      <c r="F8">
+        <v>1.1121319835897201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.76282189448765303</v>
+      </c>
+      <c r="B9">
+        <v>0.982351286481984</v>
+      </c>
+      <c r="C9">
+        <v>1.8049544991250499</v>
+      </c>
+      <c r="D9">
+        <v>1.1092824707468201</v>
+      </c>
+      <c r="E9">
+        <v>0.61806664206830697</v>
+      </c>
+      <c r="F9">
+        <v>1.0955463575554001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.3789596355546101</v>
+      </c>
+      <c r="B10">
+        <v>1.0133671378104701</v>
+      </c>
+      <c r="C10">
+        <v>3.3542711640259899</v>
+      </c>
+      <c r="D10">
+        <v>1.1384169129546799</v>
+      </c>
+      <c r="E10">
+        <v>4.1877317512448302</v>
+      </c>
+      <c r="F10">
+        <v>1.1044784843514199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.59634093325198</v>
+      </c>
+      <c r="B11">
+        <v>0.98067080454899103</v>
+      </c>
+      <c r="C11">
+        <v>4.2057348272574098</v>
+      </c>
+      <c r="D11">
+        <v>1.0399260587949399</v>
+      </c>
+      <c r="E11">
+        <v>4.2949903372288798</v>
+      </c>
+      <c r="F11">
+        <v>0.29781062429903798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2.23054020187702</v>
+      </c>
+      <c r="B12">
+        <v>0.97939217699128001</v>
+      </c>
+      <c r="C12">
+        <v>4.2673427562095601</v>
+      </c>
+      <c r="D12">
+        <v>3.9801849260770697E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.4671885902583197</v>
+      </c>
+      <c r="F12">
+        <v>0.32972151491793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3.3630973473957999</v>
+      </c>
+      <c r="B13">
+        <v>1.00936686016563</v>
+      </c>
+      <c r="C13">
+        <v>5.4269629672926998</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5.3641567816578997</v>
+      </c>
+      <c r="F13">
+        <v>0.34404214356430202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3.5079695029061302</v>
+      </c>
+      <c r="B14">
+        <v>0.96068768243275304</v>
+      </c>
+      <c r="E14">
+        <v>5.4304457052117998</v>
+      </c>
+      <c r="F14">
+        <v>0.26057516320767499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4.1513164384012002</v>
+      </c>
+      <c r="B15">
+        <v>1.00777770877248</v>
+      </c>
+      <c r="E15">
+        <v>5.4602072837932099</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4.29487343413789</v>
+      </c>
+      <c r="B16">
+        <v>0.23329473095849601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4.4490393853819903</v>
+      </c>
+      <c r="B17">
+        <v>0.31362907379873001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5.39124907299502</v>
+      </c>
+      <c r="B18">
+        <v>0.29560042523499303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.4541429359480604</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F41583-914A-4AA4-84AC-89D78EF022B9}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.16917364853708799</v>
+      </c>
+      <c r="B4">
+        <v>-1.6680284665568399E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.131452497174088</v>
+      </c>
+      <c r="D4">
+        <v>-5.0506547223409103E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.31955022501449998</v>
+      </c>
+      <c r="F4">
+        <v>1.6510941674039398E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.18968531838599201</v>
+      </c>
+      <c r="B5">
+        <v>0.43942389514281999</v>
+      </c>
+      <c r="C5">
+        <v>0.208609397689315</v>
+      </c>
+      <c r="D5">
+        <v>0.47322898982672001</v>
+      </c>
+      <c r="E5">
+        <v>0.58270923384997098</v>
+      </c>
+      <c r="F5">
+        <v>1.6214591438864698E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16.862942249806299</v>
+      </c>
+      <c r="B6">
+        <v>0.52576765294847405</v>
+      </c>
+      <c r="C6">
+        <v>16.862751738940801</v>
+      </c>
+      <c r="D6">
+        <v>0.47509176273353498</v>
+      </c>
+      <c r="E6">
+        <v>1.25940382799832</v>
+      </c>
+      <c r="F6">
+        <v>1.54525479769853E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16.954958997828101</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>16.955022501449999</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2.19925743098214</v>
+      </c>
+      <c r="F7">
+        <v>1.4394154279932099E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2.70665136934976</v>
+      </c>
+      <c r="F8">
+        <v>4.7606548493481698E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>3.5149254679158499</v>
+      </c>
+      <c r="F9">
+        <v>4.6696329914015899E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>4.1540894215666704</v>
+      </c>
+      <c r="F10">
+        <v>2.9084658795038999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>4.8871752318940498</v>
+      </c>
+      <c r="F11">
+        <v>2.8259111711337302E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>5.4698844657440304</v>
+      </c>
+      <c r="F12">
+        <v>2.7602907619163699E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>6.2968921327479697</v>
+      </c>
+      <c r="F13">
+        <v>4.3563484570736201E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>7.2556698150351098</v>
+      </c>
+      <c r="F14">
+        <v>8.6999961897822296E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>8.2143839937004408</v>
+      </c>
+      <c r="F15">
+        <v>9.27152878619175E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>9.3985360298382297</v>
+      </c>
+      <c r="F16">
+        <v>6.2868585604993702E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>10.1128247681059</v>
+      </c>
+      <c r="F17">
+        <v>5.4824793507384202E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>11.0526783710897</v>
+      </c>
+      <c r="F18">
+        <v>4.4240856536852304E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>12.067656758690401</v>
+      </c>
+      <c r="F19">
+        <v>2.0172983865846199E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>13.4587035947283</v>
+      </c>
+      <c r="F20">
+        <v>1.7145977892267701E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>14.699310350667</v>
+      </c>
+      <c r="F21">
+        <v>3.17518109116399E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>15.394802016874999</v>
+      </c>
+      <c r="F22">
+        <v>4.6569322670375602E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>16.1465578920184</v>
+      </c>
+      <c r="F23">
+        <v>3.24715186256119E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>16.9360984221466</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF592E4A-7188-4F18-AFAC-C327CAB93B55}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05FF81-DFC3-4B0E-987B-9A1506FCE8B6}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.7854889589905398E-2</v>
+      </c>
+      <c r="B4">
+        <v>2.74581241391578E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.9432176656151403E-2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3.7854889589905398E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.5709779179810699E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.50562047363042595</v>
+      </c>
+      <c r="C5">
+        <v>7.4132492113564694E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.51973460108706904</v>
+      </c>
+      <c r="E5">
+        <v>7.7287066246056801E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.50559085321603703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.1198738170347</v>
+      </c>
+      <c r="B6">
+        <v>0.54704462315427804</v>
+      </c>
+      <c r="C6">
+        <v>8.8328075709779102E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.56172153848432205</v>
+      </c>
+      <c r="E6">
+        <v>0.12145110410094601</v>
+      </c>
+      <c r="F6">
+        <v>0.54701500273988801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.15457413249211299</v>
+      </c>
+      <c r="B7">
+        <v>1.11817064320733E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.116719242902208</v>
+      </c>
+      <c r="D7">
+        <v>0.54710386398305599</v>
+      </c>
+      <c r="E7">
+        <v>0.16246056782334301</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.16246056782334301</v>
+      </c>
+      <c r="B8">
+        <v>0.63075191421927901</v>
+      </c>
+      <c r="C8">
+        <v>0.157728706624605</v>
+      </c>
+      <c r="D8">
+        <v>3.9291479687801001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.19716088328075701</v>
+      </c>
+      <c r="F8">
+        <v>4.7146073073562302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.17034700315457399</v>
+      </c>
+      <c r="B9">
+        <v>0.92637846003465596</v>
+      </c>
+      <c r="C9">
+        <v>0.164037854889589</v>
+      </c>
+      <c r="D9">
+        <v>0.39128567408657999</v>
+      </c>
+      <c r="E9">
+        <v>0.317034700315457</v>
+      </c>
+      <c r="F9">
+        <v>1.5292575643133199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.17507886435331199</v>
+      </c>
+      <c r="B10">
+        <v>1.3206557959745799</v>
+      </c>
+      <c r="C10">
+        <v>0.16246056782334301</v>
+      </c>
+      <c r="D10">
+        <v>0.602582900134773</v>
+      </c>
+      <c r="E10">
+        <v>0.36277602523659302</v>
+      </c>
+      <c r="F10">
+        <v>1.0495253328594001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.198738170347003</v>
+      </c>
+      <c r="B11">
+        <v>4.72866219398409</v>
+      </c>
+      <c r="C11">
+        <v>0.17034700315457399</v>
+      </c>
+      <c r="D11">
+        <v>0.89820944595014796</v>
+      </c>
+      <c r="E11">
+        <v>0.40220820189274398</v>
+      </c>
+      <c r="F11">
+        <v>1.06286932954192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.26813880126182899</v>
+      </c>
+      <c r="B12">
+        <v>3.0935560788495402</v>
+      </c>
+      <c r="C12">
+        <v>0.17665615141955801</v>
+      </c>
+      <c r="D12">
+        <v>1.32062617556019</v>
+      </c>
+      <c r="E12">
+        <v>0.42429022082018902</v>
+      </c>
+      <c r="F12">
+        <v>0.97794760148694504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.285488958990536</v>
+      </c>
+      <c r="B13">
+        <v>2.5298499726011099</v>
+      </c>
+      <c r="C13">
+        <v>0.173501577287066</v>
+      </c>
+      <c r="D13">
+        <v>1.70096710652982</v>
+      </c>
+      <c r="E13">
+        <v>0.95110410094637199</v>
+      </c>
+      <c r="F13">
+        <v>0.98213889012307298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.31230283911671902</v>
+      </c>
+      <c r="B14">
+        <v>1.5293464255564899</v>
+      </c>
+      <c r="C14">
+        <v>0.17665615141955801</v>
+      </c>
+      <c r="D14">
+        <v>1.92625997837709</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.36593059936908501</v>
+      </c>
+      <c r="B15">
+        <v>1.06355059907288</v>
+      </c>
+      <c r="C15">
+        <v>0.178233438485804</v>
+      </c>
+      <c r="D15">
+        <v>2.3205965551458001</v>
+      </c>
+      <c r="E15">
+        <v>1.3564668769716</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.40063091482649799</v>
+      </c>
+      <c r="B16">
+        <v>1.0347299358718001</v>
+      </c>
+      <c r="C16">
+        <v>0.184542586750788</v>
+      </c>
+      <c r="D16">
+        <v>2.5458301861643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.42429022082018902</v>
+      </c>
+      <c r="B17">
+        <v>0.97794760148694504</v>
+      </c>
+      <c r="C17">
+        <v>0.18611987381703399</v>
+      </c>
+      <c r="D17">
+        <v>3.0105892981442799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.958990536277602</v>
+      </c>
+      <c r="B18">
+        <v>1.0101598021356299</v>
+      </c>
+      <c r="C18">
+        <v>0.19085173501577199</v>
+      </c>
+      <c r="D18">
+        <v>3.4048666340842102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.194006309148265</v>
+      </c>
+      <c r="D19">
+        <v>3.7146665481849999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.35015772870662</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.194006309148265</v>
+      </c>
+      <c r="D20">
+        <v>4.0245257031145796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0.20031545741324899</v>
+      </c>
+      <c r="D21">
+        <v>4.7286325735697003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.25394321766561501</v>
+      </c>
+      <c r="D22">
+        <v>3.5022733668043999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0.26813880126182899</v>
+      </c>
+      <c r="D23">
+        <v>3.0935560788495402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0.27287066246056702</v>
+      </c>
+      <c r="D24">
+        <v>2.8540305978880598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0.285488958990536</v>
+      </c>
+      <c r="D25">
+        <v>2.6002725078123801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0.29337539432176601</v>
+      </c>
+      <c r="D26">
+        <v>2.3043497578531098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0.30283911671924202</v>
+      </c>
+      <c r="D27">
+        <v>2.0224818945216998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0.30914826498422698</v>
+      </c>
+      <c r="D28">
+        <v>1.6843352438500601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0.317034700315457</v>
+      </c>
+      <c r="D29">
+        <v>1.5292575643133199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0.35488958990536201</v>
+      </c>
+      <c r="D30">
+        <v>1.07784244901586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0.40220820189274398</v>
+      </c>
+      <c r="D31">
+        <v>1.1051228506686801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>0.42271293375394298</v>
+      </c>
+      <c r="D32">
+        <v>1.00614623598584</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0.54416403785488898</v>
+      </c>
+      <c r="D33">
+        <v>1.0038654640778399</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0.95741324921135595</v>
+      </c>
+      <c r="D34">
+        <v>0.95385139438100697</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0.98422712933753898</v>
+      </c>
+      <c r="D35">
+        <v>0.37588305860398902</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0.99684542586750702</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>1.35173501577287</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DB6BF3-A705-47D1-8E6D-E815B08019BF}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.16144343623631399</v>
+      </c>
+      <c r="B4">
+        <v>4.27495315119834E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.193806095275668</v>
+      </c>
+      <c r="D4">
+        <v>4.2734120721964197E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.193806095275668</v>
+      </c>
+      <c r="F4">
+        <v>4.2734120721964197E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.26204507347864597</v>
+      </c>
+      <c r="B5">
+        <v>4.7345869650000001</v>
+      </c>
+      <c r="C5">
+        <v>0.26204507347864597</v>
+      </c>
+      <c r="D5">
+        <v>4.7712730545418598</v>
+      </c>
+      <c r="E5">
+        <v>0.26241493243909603</v>
+      </c>
+      <c r="F5">
+        <v>4.7427014498471198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.56939786961238603</v>
+      </c>
+      <c r="B6">
+        <v>1.0282695532103701</v>
+      </c>
+      <c r="C6">
+        <v>0.60194545813196498</v>
+      </c>
+      <c r="D6">
+        <v>1.01396834007298</v>
+      </c>
+      <c r="E6">
+        <v>0.60157559917151504</v>
+      </c>
+      <c r="F6">
+        <v>1.0425399447677199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.0289599566032099</v>
+      </c>
+      <c r="B7">
+        <v>1.0270983331689501</v>
+      </c>
+      <c r="C7">
+        <v>3.02859009764276</v>
+      </c>
+      <c r="D7">
+        <v>1.05566993786369</v>
+      </c>
+      <c r="E7">
+        <v>3.0609527566821102</v>
+      </c>
+      <c r="F7">
+        <v>1.0556545270736699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.2871215109971299</v>
+      </c>
+      <c r="B8">
+        <v>1.0841182562382801</v>
+      </c>
+      <c r="C8">
+        <v>3.3516618995956202</v>
+      </c>
+      <c r="D8">
+        <v>1.0983732370056201</v>
+      </c>
+      <c r="E8">
+        <v>4.0961879869809596</v>
+      </c>
+      <c r="F8">
+        <v>1.08373298648781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4.1285506460203099</v>
+      </c>
+      <c r="B9">
+        <v>1.0837175756977999</v>
+      </c>
+      <c r="C9">
+        <v>3.7405685965085298</v>
+      </c>
+      <c r="D9">
+        <v>1.05533090048328</v>
+      </c>
+      <c r="E9">
+        <v>4.6752021895650397</v>
+      </c>
+      <c r="F9">
+        <v>1.35488583686754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4.7724750961633298</v>
+      </c>
+      <c r="B10">
+        <v>1.34055380215011</v>
+      </c>
+      <c r="C10">
+        <v>4.1610982345398897</v>
+      </c>
+      <c r="D10">
+        <v>1.0694163625604001</v>
+      </c>
+      <c r="E10">
+        <v>25.4200364927507</v>
+      </c>
+      <c r="F10">
+        <v>1.3164359157707799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>25.452214222309799</v>
+      </c>
+      <c r="B11">
+        <v>1.33070630732813</v>
+      </c>
+      <c r="C11">
+        <v>4.5459364828878597</v>
+      </c>
+      <c r="D11">
+        <v>1.34066167768024</v>
+      </c>
+      <c r="E11">
+        <v>25.5981235822073</v>
+      </c>
+      <c r="F11">
+        <v>5.9208255251997202E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>25.5333982641286</v>
+      </c>
+      <c r="B12">
+        <v>5.92390768320347E-2</v>
+      </c>
+      <c r="C12">
+        <v>25.387488904231098</v>
+      </c>
+      <c r="D12">
+        <v>1.33073712890817</v>
+      </c>
+      <c r="E12">
+        <v>25.761046454285399</v>
+      </c>
+      <c r="F12">
+        <v>2.65836127823257E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>25.760676595324899</v>
+      </c>
+      <c r="B13">
+        <v>1.9879919124177101E-3</v>
+      </c>
+      <c r="C13">
+        <v>25.533768123089001</v>
+      </c>
+      <c r="D13">
+        <v>3.06674721372912E-2</v>
+      </c>
+      <c r="E13">
+        <v>26.213753821875901</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>26.246116480915202</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>26.181206233356299</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
